--- a/tests/Test3.xlsx
+++ b/tests/Test3.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B18DB-6E26-7A4E-A97A-FC97C98A5BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -548,7 +549,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +647,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,12 +658,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -676,13 +681,26 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4367219115278429E-2"/>
+          <c:y val="0.1820101587385681"/>
+          <c:w val="0.79019899897671786"/>
+          <c:h val="0.69601610564028527"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$5:$B$10</c:f>
@@ -720,10 +738,10 @@
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>107</c:v>
@@ -738,6 +756,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D678-B04F-A64B-98125C4F5560}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -757,28 +780,101 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Parallelism</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.87900342845836854"/>
+              <c:y val="0.8546508347516274"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="133539520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="133539520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="140"/>
-          <c:min val="80"/>
+          <c:max val="130"/>
+          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.98390263054574E-2"/>
+              <c:y val="6.3735422475050138E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="133538944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -802,19 +898,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:colOff>981074</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -875,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,9 +1010,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,6 +1062,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1118,27 +1254,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D38" sqref="B31:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="15" width="9.42578125" customWidth="1"/>
+    <col min="2" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="15" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>158</v>
       </c>
@@ -1146,7 +1282,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1154,23 +1290,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>32</v>
       </c>
@@ -1178,7 +1314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>64</v>
       </c>
@@ -1186,7 +1322,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>128</v>
       </c>
@@ -1194,89 +1330,177 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>124</v>
+      </c>
+      <c r="D31" s="9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>114</v>
+      </c>
+      <c r="D32" s="9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>104</v>
+      </c>
+      <c r="D33" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>105</v>
+      </c>
+      <c r="D34" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>107</v>
+      </c>
+      <c r="D35" s="9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>110</v>
+      </c>
+      <c r="D36" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <v>112</v>
+      </c>
+      <c r="D37" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1289,71 +1513,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>1024</v>
       </c>
@@ -1381,13 +1605,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>128</v>
       </c>
@@ -1401,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>128</v>
       </c>
@@ -1415,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>128</v>
       </c>
@@ -1432,7 +1656,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>128</v>
       </c>
@@ -1449,7 +1673,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>128</v>
       </c>
@@ -1463,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>128</v>
       </c>
@@ -1477,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>128</v>
       </c>
@@ -1491,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>128</v>
       </c>
@@ -1506,7 +1730,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>128</v>
       </c>
@@ -1521,7 +1745,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>128</v>
       </c>
@@ -1535,7 +1759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>128</v>
       </c>
@@ -1555,21 +1779,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="6" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="6" max="9" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +1833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1649,7 +1873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1689,7 +1913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +2013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1809,7 +2033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +2053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1849,7 +2073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +2093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +2113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -1909,7 +2133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +2153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1949,7 +2173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +2193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -1989,7 +2213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -2009,7 +2233,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -2029,7 +2253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>37</v>
       </c>
@@ -2049,7 +2273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -2069,7 +2293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>40</v>
       </c>
@@ -2109,7 +2333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -2129,7 +2353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -2149,7 +2373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -2169,7 +2393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -2189,7 +2413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -2209,7 +2433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -2229,7 +2453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -2249,7 +2473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>48</v>
       </c>
@@ -2269,7 +2493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>50</v>
       </c>
@@ -2309,7 +2533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>51</v>
       </c>
@@ -2329,7 +2553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -2349,7 +2573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>53</v>
       </c>
@@ -2369,7 +2593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>54</v>
       </c>
@@ -2389,7 +2613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>55</v>
       </c>
@@ -2409,7 +2633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>56</v>
       </c>
@@ -2429,7 +2653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>57</v>
       </c>
@@ -2449,7 +2673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>58</v>
       </c>
@@ -2469,7 +2693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>59</v>
       </c>
@@ -2489,7 +2713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>60</v>
       </c>
@@ -2509,7 +2733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>61</v>
       </c>
@@ -2529,7 +2753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>62</v>
       </c>
@@ -2549,7 +2773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>63</v>
       </c>
@@ -2569,7 +2793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>64</v>
       </c>
@@ -2589,7 +2813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>65</v>
       </c>
@@ -2609,7 +2833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -2629,7 +2853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>67</v>
       </c>
@@ -2649,7 +2873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>68</v>
       </c>
@@ -2669,7 +2893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>69</v>
       </c>
@@ -2689,7 +2913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>70</v>
       </c>
@@ -2709,7 +2933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>71</v>
       </c>
@@ -2729,7 +2953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>72</v>
       </c>
@@ -2749,7 +2973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>73</v>
       </c>
@@ -2769,7 +2993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>74</v>
       </c>
@@ -2789,7 +3013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>75</v>
       </c>
@@ -2809,7 +3033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>76</v>
       </c>
@@ -2829,7 +3053,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -2849,7 +3073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>78</v>
       </c>
@@ -2869,7 +3093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>79</v>
       </c>
@@ -2889,7 +3113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>80</v>
       </c>
@@ -2909,7 +3133,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>81</v>
       </c>
@@ -2929,7 +3153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -2949,7 +3173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>83</v>
       </c>
@@ -2969,7 +3193,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +3213,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>85</v>
       </c>
@@ -3009,7 +3233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>86</v>
       </c>
@@ -3029,7 +3253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>87</v>
       </c>
@@ -3049,7 +3273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>88</v>
       </c>
@@ -3069,7 +3293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>89</v>
       </c>
@@ -3089,7 +3313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>90</v>
       </c>
@@ -3109,7 +3333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>91</v>
       </c>
@@ -3129,7 +3353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>92</v>
       </c>
@@ -3149,7 +3373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>93</v>
       </c>
@@ -3169,7 +3393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>94</v>
       </c>
@@ -3189,7 +3413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>95</v>
       </c>
@@ -3209,7 +3433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>96</v>
       </c>
@@ -3229,7 +3453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>97</v>
       </c>
@@ -3249,7 +3473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>98</v>
       </c>
@@ -3269,7 +3493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>99</v>
       </c>
@@ -3289,7 +3513,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>100</v>
       </c>
@@ -3309,7 +3533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>101</v>
       </c>
@@ -3329,7 +3553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>102</v>
       </c>
@@ -3349,7 +3573,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>103</v>
       </c>
@@ -3369,7 +3593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>104</v>
       </c>
@@ -3389,7 +3613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>105</v>
       </c>
@@ -3409,7 +3633,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>106</v>
       </c>
@@ -3429,7 +3653,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>107</v>
       </c>
@@ -3449,7 +3673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>108</v>
       </c>
@@ -3469,7 +3693,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -3489,7 +3713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>110</v>
       </c>
@@ -3509,7 +3733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>111</v>
       </c>
@@ -3529,7 +3753,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>112</v>
       </c>
@@ -3549,7 +3773,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>113</v>
       </c>
@@ -3569,7 +3793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>114</v>
       </c>
@@ -3589,7 +3813,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>115</v>
       </c>
@@ -3609,7 +3833,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>116</v>
       </c>
@@ -3629,7 +3853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>117</v>
       </c>
@@ -3649,7 +3873,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>118</v>
       </c>
@@ -3669,7 +3893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>119</v>
       </c>
@@ -3689,7 +3913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>120</v>
       </c>
@@ -3709,7 +3933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>121</v>
       </c>
@@ -3729,7 +3953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>122</v>
       </c>
@@ -3749,7 +3973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>123</v>
       </c>
@@ -3769,7 +3993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>124</v>
       </c>
@@ -3789,7 +4013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>125</v>
       </c>
@@ -3809,7 +4033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>126</v>
       </c>
@@ -3829,7 +4053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>127</v>
       </c>
@@ -3849,7 +4073,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>128</v>
       </c>
@@ -3869,7 +4093,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>129</v>
       </c>
@@ -3889,7 +4113,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>130</v>
       </c>
@@ -3909,7 +4133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>131</v>
       </c>
@@ -3929,7 +4153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>132</v>
       </c>
@@ -3949,7 +4173,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>133</v>
       </c>
@@ -3969,7 +4193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>134</v>
       </c>
@@ -3989,7 +4213,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>135</v>
       </c>
@@ -4009,7 +4233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>136</v>
       </c>
@@ -4029,7 +4253,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>137</v>
       </c>
@@ -4049,7 +4273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -4069,7 +4293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>139</v>
       </c>
@@ -4089,7 +4313,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>140</v>
       </c>
@@ -4109,7 +4333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>141</v>
       </c>
